--- a/src/ImageRecognitionApp/Localization/B_本地化.xlsx
+++ b/src/ImageRecognitionApp/Localization/B_本地化.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\.Temp\workspace\aotuVisualJump\src\ImageRecognitionApp\Localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\aotuVisualJump\src\ImageRecognitionApp\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA77602-F419-4148-A652-0A54258B73FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85418916-7752-4F7E-BC6A-E9129486A11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,35 @@
   <si>
     <t>小工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位F2</t>
+  </si>
+  <si>
+    <t>占位F3</t>
+  </si>
+  <si>
+    <t>占位F4</t>
+  </si>
+  <si>
+    <t>占位F5</t>
+  </si>
+  <si>
+    <t>占位F6</t>
+  </si>
+  <si>
+    <t>占位F7</t>
+  </si>
+  <si>
+    <t>占位F8</t>
   </si>
 </sst>
 </file>
@@ -413,13 +442,13 @@
   <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="6" max="8" width="24.875" customWidth="1"/>
+    <col min="5" max="8" width="24.875" customWidth="1"/>
     <col min="9" max="26" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -430,6 +459,9 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
@@ -444,6 +476,9 @@
       <c r="B2">
         <v>10001</v>
       </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
@@ -452,6 +487,9 @@
       <c r="B3">
         <v>10002</v>
       </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
@@ -460,6 +498,9 @@
       <c r="B4">
         <v>10003</v>
       </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
@@ -468,6 +509,9 @@
       <c r="B5">
         <v>10004</v>
       </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
@@ -476,6 +520,9 @@
       <c r="B6">
         <v>10005</v>
       </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
@@ -484,6 +531,9 @@
       <c r="B7">
         <v>10006</v>
       </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
@@ -492,6 +542,9 @@
       <c r="B8">
         <v>10007</v>
       </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
@@ -499,6 +552,9 @@
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>10008</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>

--- a/src/ImageRecognitionApp/Localization/B_本地化.xlsx
+++ b/src/ImageRecognitionApp/Localization/B_本地化.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\aotuVisualJump\src\ImageRecognitionApp\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85418916-7752-4F7E-BC6A-E9129486A11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C42EB9-62D9-4236-A244-25174BA228F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,14 @@
   </si>
   <si>
     <t>占位F8</t>
+  </si>
+  <si>
+    <t>占位S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -439,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H20"/>
+  <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -560,59 +568,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>10009</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>10010</v>
-      </c>
-    </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>10011</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>10012</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>10013</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>10014</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>10015</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>10016</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>10017</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>10018</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>10019</v>
+        <v>20001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
